--- a/GraphMediator/Doc/WHO/weight/weight_boys.xlsx
+++ b/GraphMediator/Doc/WHO/weight/weight_boys.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\src\eg\child_journal\GraphMediator\Doc\WHO\weight\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashiv\source\repos\child_journal\GraphMediator\Doc\WHO\weight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47B7B94A-14CC-4655-96AF-43843DE7B5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE65C688-8C60-4208-8A90-14CB64846CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="1866" windowWidth="17280" windowHeight="9984" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wfa_boys_0 to 13 weeks_zscores" sheetId="1" r:id="rId1"/>
     <sheet name="wfa_boys_0 to 5 years_zscores" sheetId="2" r:id="rId2"/>
     <sheet name="weight_boys" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">weight_boys!$G$1:$G$73</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>Week</t>
   </si>
@@ -74,6 +77,12 @@
   </si>
   <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -557,8 +566,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -920,9 +930,9 @@
       <selection activeCell="B1" sqref="B1:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -998,7 +1008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1036,7 +1046,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1074,7 +1084,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1112,7 +1122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1150,7 +1160,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1188,7 +1198,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1226,7 +1236,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1264,7 +1274,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1302,7 +1312,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1340,7 +1350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1378,7 +1388,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1416,7 +1426,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1454,7 +1464,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1505,9 +1515,9 @@
       <selection activeCell="B2" sqref="B2:L62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1545,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1583,7 +1593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1621,7 +1631,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1659,7 +1669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1697,7 +1707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1735,7 +1745,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1773,7 +1783,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1811,7 +1821,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1849,7 +1859,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1887,7 +1897,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1925,7 +1935,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1963,7 +1973,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2001,7 +2011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2039,7 +2049,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2077,7 +2087,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2115,7 +2125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2153,7 +2163,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2191,7 +2201,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2229,7 +2239,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2267,7 +2277,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2305,7 +2315,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2343,7 +2353,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2381,7 +2391,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2419,7 +2429,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2457,7 +2467,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2495,7 +2505,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2533,7 +2543,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2571,7 +2581,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2609,7 +2619,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2647,7 +2657,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2685,7 +2695,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2723,7 +2733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2761,7 +2771,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2799,7 +2809,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2837,7 +2847,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2875,7 +2885,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2913,7 +2923,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2951,7 +2961,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2989,7 +2999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3027,7 +3037,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3065,7 +3075,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3103,7 +3113,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3141,7 +3151,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3179,7 +3189,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3217,7 +3227,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3255,7 +3265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3293,7 +3303,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3331,7 +3341,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3369,7 +3379,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3407,7 +3417,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3445,7 +3455,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3483,7 +3493,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3521,7 +3531,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3559,7 +3569,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3597,7 +3607,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3635,7 +3645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3673,7 +3683,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3711,7 +3721,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3749,7 +3759,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3787,7 +3797,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3825,7 +3835,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3870,13 +3880,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CC72AB-E42A-4639-8D44-55A55EFAC617}">
-  <dimension ref="A1:F73"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H73"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3895,8 +3912,14 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3915,8 +3938,16 @@
       <c r="F2">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="1">
+        <f>DATE(2005,4,22+INT(A2*365.25))</f>
+        <v>38464</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.9178082191780823E-2</v>
       </c>
@@ -3935,8 +3966,13 @@
       <c r="F3">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H66" si="0">DATE(2005,4,22+INT(A3*365.25))</f>
+        <v>38471</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.8356164383561646E-2</v>
       </c>
@@ -3955,8 +3991,12 @@
       <c r="F4">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>38478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5.7534246575342465E-2</v>
       </c>
@@ -3975,8 +4015,12 @@
       <c r="F5">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>38485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7.6712328767123292E-2</v>
       </c>
@@ -3995,8 +4039,15 @@
       <c r="F6">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6">
+        <v>3.67</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>38492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9.5890410958904104E-2</v>
       </c>
@@ -4015,8 +4066,12 @@
       <c r="F7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>38499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.11506849315068493</v>
       </c>
@@ -4035,8 +4090,12 @@
       <c r="F8">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>38506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.13424657534246576</v>
       </c>
@@ -4055,8 +4114,12 @@
       <c r="F9">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>38513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.15342465753424658</v>
       </c>
@@ -4075,8 +4138,12 @@
       <c r="F10">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>38520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.17260273972602741</v>
       </c>
@@ -4095,8 +4162,12 @@
       <c r="F11">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>38527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.19178082191780821</v>
       </c>
@@ -4115,8 +4186,12 @@
       <c r="F12">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>38534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.21095890410958903</v>
       </c>
@@ -4135,8 +4210,12 @@
       <c r="F13">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>38541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.23013698630136986</v>
       </c>
@@ -4155,8 +4234,15 @@
       <c r="F14">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14">
+        <v>5.3</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>38548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.24931506849315069</v>
       </c>
@@ -4175,8 +4261,12 @@
       <c r="F15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>38555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.25</v>
       </c>
@@ -4195,8 +4285,12 @@
       <c r="F16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>38555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.33333333333333331</v>
       </c>
@@ -4215,8 +4309,12 @@
       <c r="F17">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>38585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.41666666666666669</v>
       </c>
@@ -4235,8 +4333,15 @@
       <c r="F18">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18">
+        <v>6.32</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>38616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.5</v>
       </c>
@@ -4255,8 +4360,12 @@
       <c r="F19">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>38646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.58333333333333337</v>
       </c>
@@ -4275,8 +4384,12 @@
       <c r="F20">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>38677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.66666666666666663</v>
       </c>
@@ -4295,8 +4408,12 @@
       <c r="F21">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>38707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.75</v>
       </c>
@@ -4315,8 +4432,12 @@
       <c r="F22">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>38737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.83333333333333337</v>
       </c>
@@ -4335,8 +4456,12 @@
       <c r="F23">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>38768</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.91666666666666663</v>
       </c>
@@ -4355,8 +4480,12 @@
       <c r="F24">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>38798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4375,8 +4504,15 @@
       <c r="F25">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25">
+        <v>8.43</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>38829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1.0833333333333333</v>
       </c>
@@ -4395,8 +4531,12 @@
       <c r="F26">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>38859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1.1666666666666667</v>
       </c>
@@ -4415,8 +4555,12 @@
       <c r="F27">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>38890</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1.25</v>
       </c>
@@ -4435,8 +4579,12 @@
       <c r="F28">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>38920</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1.3333333333333333</v>
       </c>
@@ -4455,8 +4603,15 @@
       <c r="F29">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G29">
+        <v>9.65</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>38951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1.4166666666666667</v>
       </c>
@@ -4475,8 +4630,12 @@
       <c r="F30">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>38981</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1.5</v>
       </c>
@@ -4495,8 +4654,12 @@
       <c r="F31">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>39011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1.5833333333333333</v>
       </c>
@@ -4515,8 +4678,12 @@
       <c r="F32">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>39042</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1.6666666666666667</v>
       </c>
@@ -4535,8 +4702,12 @@
       <c r="F33">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>39072</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1.75</v>
       </c>
@@ -4555,8 +4726,12 @@
       <c r="F34">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>39103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1.8333333333333333</v>
       </c>
@@ -4575,8 +4750,12 @@
       <c r="F35">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H35" s="1">
+        <f t="shared" si="0"/>
+        <v>39133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1.9166666666666667</v>
       </c>
@@ -4595,8 +4774,12 @@
       <c r="F36">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
+        <v>39164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2</v>
       </c>
@@ -4615,8 +4798,15 @@
       <c r="F37">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G37">
+        <v>10.29</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
+        <v>39194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2.0833333333333335</v>
       </c>
@@ -4635,8 +4825,12 @@
       <c r="F38">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
+        <v>39224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2.1666666666666665</v>
       </c>
@@ -4655,8 +4849,12 @@
       <c r="F39">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H39" s="1">
+        <f t="shared" si="0"/>
+        <v>39255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2.25</v>
       </c>
@@ -4675,8 +4873,12 @@
       <c r="F40">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H40" s="1">
+        <f t="shared" si="0"/>
+        <v>39285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2.3333333333333335</v>
       </c>
@@ -4695,8 +4897,15 @@
       <c r="F41">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G41">
+        <v>10.5</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="0"/>
+        <v>39316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2.4166666666666665</v>
       </c>
@@ -4715,8 +4924,12 @@
       <c r="F42">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H42" s="1">
+        <f t="shared" si="0"/>
+        <v>39346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2.5</v>
       </c>
@@ -4735,8 +4948,12 @@
       <c r="F43">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H43" s="1">
+        <f t="shared" si="0"/>
+        <v>39377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2.5833333333333335</v>
       </c>
@@ -4755,8 +4972,12 @@
       <c r="F44">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H44" s="1">
+        <f t="shared" si="0"/>
+        <v>39407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2.6666666666666665</v>
       </c>
@@ -4775,8 +4996,12 @@
       <c r="F45">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H45" s="1">
+        <f t="shared" si="0"/>
+        <v>39438</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2.75</v>
       </c>
@@ -4795,8 +5020,12 @@
       <c r="F46">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H46" s="1">
+        <f t="shared" si="0"/>
+        <v>39468</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2.8333333333333335</v>
       </c>
@@ -4815,8 +5044,12 @@
       <c r="F47">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H47" s="1">
+        <f t="shared" si="0"/>
+        <v>39498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2.9166666666666665</v>
       </c>
@@ -4835,8 +5068,12 @@
       <c r="F48">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H48" s="1">
+        <f t="shared" si="0"/>
+        <v>39529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3</v>
       </c>
@@ -4855,8 +5092,15 @@
       <c r="F49">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G49">
+        <v>11.84</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>39559</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>3.0833333333333335</v>
       </c>
@@ -4875,8 +5119,12 @@
       <c r="F50">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H50" s="1">
+        <f t="shared" si="0"/>
+        <v>39590</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>3.1666666666666665</v>
       </c>
@@ -4895,8 +5143,12 @@
       <c r="F51">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H51" s="1">
+        <f t="shared" si="0"/>
+        <v>39620</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>3.25</v>
       </c>
@@ -4915,8 +5167,15 @@
       <c r="F52">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G52">
+        <v>12.56</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="0"/>
+        <v>39651</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3.3333333333333335</v>
       </c>
@@ -4935,8 +5194,12 @@
       <c r="F53">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H53" s="1">
+        <f t="shared" si="0"/>
+        <v>39681</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3.4166666666666665</v>
       </c>
@@ -4955,8 +5218,12 @@
       <c r="F54">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H54" s="1">
+        <f t="shared" si="0"/>
+        <v>39711</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>3.5</v>
       </c>
@@ -4975,8 +5242,12 @@
       <c r="F55">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H55" s="1">
+        <f t="shared" si="0"/>
+        <v>39742</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>3.5833333333333335</v>
       </c>
@@ -4995,8 +5266,12 @@
       <c r="F56">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H56" s="1">
+        <f t="shared" si="0"/>
+        <v>39772</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>3.6666666666666665</v>
       </c>
@@ -5015,8 +5290,12 @@
       <c r="F57">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H57" s="1">
+        <f t="shared" si="0"/>
+        <v>39803</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>3.75</v>
       </c>
@@ -5035,8 +5314,12 @@
       <c r="F58">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H58" s="1">
+        <f t="shared" si="0"/>
+        <v>39833</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>3.8333333333333335</v>
       </c>
@@ -5055,8 +5338,12 @@
       <c r="F59">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H59" s="1">
+        <f t="shared" si="0"/>
+        <v>39864</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>3.9166666666666665</v>
       </c>
@@ -5075,8 +5362,12 @@
       <c r="F60">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H60" s="1">
+        <f t="shared" si="0"/>
+        <v>39894</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>4</v>
       </c>
@@ -5095,8 +5386,15 @@
       <c r="F61">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G61">
+        <v>13.58</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="0"/>
+        <v>39925</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>4.083333333333333</v>
       </c>
@@ -5115,8 +5413,12 @@
       <c r="F62">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H62" s="1">
+        <f t="shared" si="0"/>
+        <v>39955</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>4.166666666666667</v>
       </c>
@@ -5135,8 +5437,12 @@
       <c r="F63">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H63" s="1">
+        <f t="shared" si="0"/>
+        <v>39985</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>4.25</v>
       </c>
@@ -5155,8 +5461,12 @@
       <c r="F64">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H64" s="1">
+        <f t="shared" si="0"/>
+        <v>40016</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>4.333333333333333</v>
       </c>
@@ -5175,8 +5485,12 @@
       <c r="F65">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H65" s="1">
+        <f t="shared" si="0"/>
+        <v>40046</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>4.416666666666667</v>
       </c>
@@ -5195,8 +5509,15 @@
       <c r="F66">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G66">
+        <v>15.6</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="0"/>
+        <v>40077</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>4.5</v>
       </c>
@@ -5215,8 +5536,12 @@
       <c r="F67">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H67" s="1">
+        <f t="shared" ref="H67:H73" si="1">DATE(2005,4,22+INT(A67*365.25))</f>
+        <v>40107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>4.583333333333333</v>
       </c>
@@ -5235,8 +5560,12 @@
       <c r="F68">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H68" s="1">
+        <f t="shared" si="1"/>
+        <v>40138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>4.666666666666667</v>
       </c>
@@ -5255,8 +5584,12 @@
       <c r="F69">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H69" s="1">
+        <f t="shared" si="1"/>
+        <v>40168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>4.75</v>
       </c>
@@ -5275,8 +5608,12 @@
       <c r="F70">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H70" s="1">
+        <f t="shared" si="1"/>
+        <v>40198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>4.833333333333333</v>
       </c>
@@ -5295,8 +5632,12 @@
       <c r="F71">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H71" s="1">
+        <f t="shared" si="1"/>
+        <v>40229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>4.916666666666667</v>
       </c>
@@ -5315,8 +5656,12 @@
       <c r="F72">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H72" s="1">
+        <f t="shared" si="1"/>
+        <v>40259</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>5</v>
       </c>
@@ -5335,8 +5680,22 @@
       <c r="F73">
         <v>24.2</v>
       </c>
+      <c r="G73">
+        <v>14.89</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="1"/>
+        <v>40290</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="G1:G73" xr:uid="{69CC72AB-E42A-4639-8D44-55A55EFAC617}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>